--- a/SIM Card Details/Airtel/GROUP_CHANGE_TEMPLATE2021-09-01T16_07_50+05_30.xlsx
+++ b/SIM Card Details/Airtel/GROUP_CHANGE_TEMPLATE2021-09-01T16_07_50+05_30.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CrazyCoder\SIM Card Details\Airtel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CrazyCoder\CrazyCoder\SIM Card Details\Airtel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="APN Group Change Template" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="571">
   <si>
     <t>SIM_NO</t>
   </si>
@@ -1677,6 +1677,66 @@
   </si>
   <si>
     <t>Upload the data for only those MSISDN/Mobile Number for which the Group Change is required. Please delete all the non-required rows</t>
+  </si>
+  <si>
+    <t>8991000905770767822</t>
+  </si>
+  <si>
+    <t>8991000905770767780</t>
+  </si>
+  <si>
+    <t>8991000905770767764</t>
+  </si>
+  <si>
+    <t>8991000905770767848</t>
+  </si>
+  <si>
+    <t>8991000905770767798</t>
+  </si>
+  <si>
+    <t>8991000905770767806</t>
+  </si>
+  <si>
+    <t>8991000905770767772</t>
+  </si>
+  <si>
+    <t>8991000905770767830</t>
+  </si>
+  <si>
+    <t>8991000905770767814</t>
+  </si>
+  <si>
+    <t>8991000905770767756</t>
+  </si>
+  <si>
+    <t>5754000558762</t>
+  </si>
+  <si>
+    <t>5754000558758</t>
+  </si>
+  <si>
+    <t>5754000558756</t>
+  </si>
+  <si>
+    <t>5754000558764</t>
+  </si>
+  <si>
+    <t>5754000558759</t>
+  </si>
+  <si>
+    <t>5754000558760</t>
+  </si>
+  <si>
+    <t>5754000558757</t>
+  </si>
+  <si>
+    <t>5754000558763</t>
+  </si>
+  <si>
+    <t>5754000558761</t>
+  </si>
+  <si>
+    <t>5754000558755</t>
   </si>
 </sst>
 </file>
@@ -1707,15 +1767,21 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1738,11 +1804,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1753,6 +1834,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2033,10 +2116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E270"/>
+  <dimension ref="A1:E280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="D274" sqref="D274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6635,6 +6718,176 @@
         <v>8</v>
       </c>
       <c r="E270" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C271" t="s">
+        <v>7</v>
+      </c>
+      <c r="D271" t="s">
+        <v>8</v>
+      </c>
+      <c r="E271" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="C272" t="s">
+        <v>7</v>
+      </c>
+      <c r="D272" t="s">
+        <v>8</v>
+      </c>
+      <c r="E272" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C273" t="s">
+        <v>7</v>
+      </c>
+      <c r="D273" t="s">
+        <v>8</v>
+      </c>
+      <c r="E273" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C274" t="s">
+        <v>7</v>
+      </c>
+      <c r="D274" t="s">
+        <v>8</v>
+      </c>
+      <c r="E274" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C275" t="s">
+        <v>7</v>
+      </c>
+      <c r="D275" t="s">
+        <v>8</v>
+      </c>
+      <c r="E275" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C276" t="s">
+        <v>7</v>
+      </c>
+      <c r="D276" t="s">
+        <v>8</v>
+      </c>
+      <c r="E276" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C277" t="s">
+        <v>7</v>
+      </c>
+      <c r="D277" t="s">
+        <v>8</v>
+      </c>
+      <c r="E277" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C278" t="s">
+        <v>7</v>
+      </c>
+      <c r="D278" t="s">
+        <v>8</v>
+      </c>
+      <c r="E278" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="C279" t="s">
+        <v>7</v>
+      </c>
+      <c r="D279" t="s">
+        <v>8</v>
+      </c>
+      <c r="E279" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C280" t="s">
+        <v>7</v>
+      </c>
+      <c r="D280" t="s">
+        <v>8</v>
+      </c>
+      <c r="E280" t="s">
         <v>9</v>
       </c>
     </row>

--- a/SIM Card Details/Airtel/GROUP_CHANGE_TEMPLATE2021-09-01T16_07_50+05_30.xlsx
+++ b/SIM Card Details/Airtel/GROUP_CHANGE_TEMPLATE2021-09-01T16_07_50+05_30.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="591">
   <si>
     <t>SIM_NO</t>
   </si>
@@ -1737,6 +1737,66 @@
   </si>
   <si>
     <t>5754000558755</t>
+  </si>
+  <si>
+    <t>8991000905770767905</t>
+  </si>
+  <si>
+    <t>8991000905770767897</t>
+  </si>
+  <si>
+    <t>8991000905770767939</t>
+  </si>
+  <si>
+    <t>8991000905770767871</t>
+  </si>
+  <si>
+    <t>8991000905770767855</t>
+  </si>
+  <si>
+    <t>8991000905770767947</t>
+  </si>
+  <si>
+    <t>8991000905770767913</t>
+  </si>
+  <si>
+    <t>8991000905770767921</t>
+  </si>
+  <si>
+    <t>8991000905770767889</t>
+  </si>
+  <si>
+    <t>8991000905770767863</t>
+  </si>
+  <si>
+    <t>5754000558770</t>
+  </si>
+  <si>
+    <t>5754000558769</t>
+  </si>
+  <si>
+    <t>5754000558773</t>
+  </si>
+  <si>
+    <t>5754000558767</t>
+  </si>
+  <si>
+    <t>5754000558765</t>
+  </si>
+  <si>
+    <t>5754000558774</t>
+  </si>
+  <si>
+    <t>5754000558771</t>
+  </si>
+  <si>
+    <t>5754000558772</t>
+  </si>
+  <si>
+    <t>5754000558768</t>
+  </si>
+  <si>
+    <t>5754000558766</t>
   </si>
 </sst>
 </file>
@@ -2116,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E280"/>
+  <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="D274" sqref="D274"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="C285" sqref="C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6889,6 +6949,146 @@
       </c>
       <c r="E280" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C281" t="s">
+        <v>7</v>
+      </c>
+      <c r="D281" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C282" t="s">
+        <v>7</v>
+      </c>
+      <c r="D282" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C283" t="s">
+        <v>7</v>
+      </c>
+      <c r="D283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C284" t="s">
+        <v>7</v>
+      </c>
+      <c r="D284" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="C285" t="s">
+        <v>7</v>
+      </c>
+      <c r="D285" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C286" t="s">
+        <v>7</v>
+      </c>
+      <c r="D286" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="C287" t="s">
+        <v>7</v>
+      </c>
+      <c r="D287" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C288" t="s">
+        <v>7</v>
+      </c>
+      <c r="D288" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C289" t="s">
+        <v>7</v>
+      </c>
+      <c r="D289" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C290" t="s">
+        <v>7</v>
+      </c>
+      <c r="D290" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
